--- a/sand-bags/src/Assets/subjects/info/לוז.xlsx
+++ b/sand-bags/src/Assets/subjects/info/לוז.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u9011569\Documents\sand-bags-github\sand-bags\src\Assets\subjects\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-sandbags\sandbagsbsmch.github.io\sand-bags\src\Assets\subjects\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EC269A44-341C-4A77-A1A9-43BBB43C7AA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" xr2:uid="{8DAC14F1-26E4-434A-9367-E2E1FDD3F6BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -195,40 +194,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +235,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -718,25 +717,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0240440A-6A82-447E-ABFE-54D8F5654254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -894,11 +893,11 @@
       <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>35</v>
@@ -1313,7 +1312,7 @@
     <row r="12" spans="1:20" ht="18.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12"/>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
